--- a/linear_model/RMSE&MAPE.xlsx
+++ b/linear_model/RMSE&MAPE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26164665-49A8-4F15-BEFB-ABA04B5D5B78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B9748E-3627-4E58-9DB8-2013B308714F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,16 +397,16 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>186.7961</v>
+        <v>6.0289029999999997</v>
       </c>
       <c r="C2">
-        <v>559.5249</v>
+        <v>5.2254389999999997</v>
       </c>
       <c r="D2">
-        <v>542.97910000000002</v>
+        <v>105.8464</v>
       </c>
       <c r="E2">
-        <v>778.21579999999994</v>
+        <v>171.3997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -414,16 +414,16 @@
         <v>10000</v>
       </c>
       <c r="B3">
-        <v>5.96061</v>
+        <v>68.455749999999995</v>
       </c>
       <c r="C3">
-        <v>155.42259999999999</v>
+        <v>1.1670640000000001</v>
       </c>
       <c r="D3">
-        <v>1003.5650000000001</v>
+        <v>159.8135</v>
       </c>
       <c r="E3">
-        <v>2626.76</v>
+        <v>604.89380000000006</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -431,16 +431,16 @@
         <v>100000</v>
       </c>
       <c r="B4">
-        <v>65.507170000000002</v>
+        <v>713.94680000000005</v>
       </c>
       <c r="C4">
-        <v>19.695779999999999</v>
+        <v>0.87643870000000001</v>
       </c>
       <c r="D4">
-        <v>149.15969999999999</v>
+        <v>2.8465790000000002</v>
       </c>
       <c r="E4">
-        <v>2619.4459999999999</v>
+        <v>180.8449</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -448,16 +448,16 @@
         <v>1000000</v>
       </c>
       <c r="B5">
-        <v>696.57460000000003</v>
+        <v>6707.1970000000001</v>
       </c>
       <c r="C5">
-        <v>1.4822679999999999</v>
+        <v>0.79938260000000005</v>
       </c>
       <c r="D5">
-        <v>2.454555</v>
+        <v>0.9150568</v>
       </c>
       <c r="E5">
-        <v>315.48110000000003</v>
+        <v>19.26127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -465,16 +465,16 @@
         <v>5000000</v>
       </c>
       <c r="B6">
-        <v>3817.5039999999999</v>
+        <v>36515.53</v>
       </c>
       <c r="C6">
-        <v>0.65100000000000002</v>
+        <v>0.90894169999999996</v>
       </c>
       <c r="D6">
-        <v>4.6357249999999999</v>
+        <v>2.0091990000000002</v>
       </c>
       <c r="E6">
-        <v>69.509270000000001</v>
+        <v>3.9704540000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -499,16 +499,16 @@
         <v>1000</v>
       </c>
       <c r="B9">
-        <v>117.03919999999999</v>
+        <v>7.1674660000000001</v>
       </c>
       <c r="C9">
-        <v>351.75220000000002</v>
+        <v>12.79372</v>
       </c>
       <c r="D9">
-        <v>341.21679999999998</v>
+        <v>255.79830000000001</v>
       </c>
       <c r="E9">
-        <v>489.28719999999998</v>
+        <v>414.6533</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -516,16 +516,16 @@
         <v>10000</v>
       </c>
       <c r="B10">
-        <v>0.57798930000000004</v>
+        <v>93.386660000000006</v>
       </c>
       <c r="C10">
-        <v>97.719049999999996</v>
+        <v>2.8604720000000001</v>
       </c>
       <c r="D10">
-        <v>630.76520000000005</v>
+        <v>391.33539999999999</v>
       </c>
       <c r="E10">
-        <v>1651.5740000000001</v>
+        <v>1486.9480000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -533,16 +533,16 @@
         <v>100000</v>
       </c>
       <c r="B11">
-        <v>16.379470000000001</v>
+        <v>1070.1110000000001</v>
       </c>
       <c r="C11">
-        <v>12.383279999999999</v>
+        <v>2.1581229999999998</v>
       </c>
       <c r="D11">
-        <v>93.505570000000006</v>
+        <v>6.2393380000000001</v>
       </c>
       <c r="E11">
-        <v>1646.982</v>
+        <v>441.37299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -550,16 +550,16 @@
         <v>1000000</v>
       </c>
       <c r="B12">
-        <v>195.1138</v>
+        <v>7901.8490000000002</v>
       </c>
       <c r="C12">
-        <v>0.93048529999999996</v>
+        <v>1.9751339999999999</v>
       </c>
       <c r="D12">
-        <v>0.55010559999999997</v>
+        <v>1.471857</v>
       </c>
       <c r="E12">
-        <v>198.3595</v>
+        <v>46.550310000000003</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -567,16 +567,16 @@
         <v>5000000</v>
       </c>
       <c r="B13">
-        <v>499.00920000000002</v>
+        <v>42894.66</v>
       </c>
       <c r="C13">
-        <v>0.34710000000000002</v>
+        <v>2.22445</v>
       </c>
       <c r="D13">
-        <v>0.46319500000000002</v>
+        <v>2.5944419999999999</v>
       </c>
       <c r="E13">
-        <v>43.703740000000003</v>
+        <v>9.7792700000000004</v>
       </c>
     </row>
   </sheetData>
